--- a/analyse.xlsx
+++ b/analyse.xlsx
@@ -4,25 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
+    <workbookView windowHeight="10050" windowWidth="20115" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Analyse" sheetId="1" r:id="rId1"/>
+    <sheet name="Analyse" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
-  <si>
-    <t>Words total:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+  <si>
+    <t>Words:</t>
   </si>
   <si>
     <t>Segments:</t>
-  </si>
-  <si>
-    <t>Words:</t>
   </si>
   <si>
     <t>Characters:</t>
@@ -83,6 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,99 +534,99 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobre" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralne" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Złe" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20% - akcent 1" xfId="19"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20% - akcent 2" xfId="23"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20% - akcent 3" xfId="27"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20% - akcent 4" xfId="31"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20% - akcent 5" xfId="35"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20% - akcent 6" xfId="39"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40% - akcent 1" xfId="20"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40% - akcent 2" xfId="24"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40% - akcent 3" xfId="28"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40% - akcent 4" xfId="32"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40% - akcent 5" xfId="36"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40% - akcent 6" xfId="40"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60% - akcent 1" xfId="21"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60% - akcent 2" xfId="25"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60% - akcent 3" xfId="29"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60% - akcent 4" xfId="33"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60% - akcent 5" xfId="37"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60% - akcent 6" xfId="41"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="Akcent 1" xfId="18"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="Akcent 2" xfId="22"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="Akcent 3" xfId="26"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="Akcent 4" xfId="30"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="Akcent 5" xfId="34"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="Akcent 6" xfId="38"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="Dane wejściowe" xfId="9"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="Dane wyjściowe" xfId="10"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="Dobre" xfId="6"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="Komórka połączona" xfId="12"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="Komórka zaznaczona" xfId="13"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="Nagłówek 1" xfId="2"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="Nagłówek 2" xfId="3"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="Nagłówek 3" xfId="4"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="Nagłówek 4" xfId="5"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="Neutralne" xfId="8"/>
+    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="Obliczenia" xfId="11"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="Suma" xfId="17"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="Tekst objaśnienia" xfId="16"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="Tekst ostrzeżenia" xfId="14"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="Tytuł" xfId="1"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="Uwaga" xfId="15"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="Złe" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,10 +640,10 @@
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -803,7 +801,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -812,13 +810,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -828,7 +826,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -837,7 +835,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -846,7 +844,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -856,12 +854,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -892,7 +890,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -911,7 +909,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -923,319 +921,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.75390625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.37109375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.5234375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.64453125" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10461</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>0/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>503</v>
-      </c>
-      <c r="F6">
-        <f>92/$B$1</f>
-        <v>8.7945703087658929E-3</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <f>0/$A$2</f>
+        <v>0.0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>0/$B$1</f>
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="F7" t="n">
+        <f>92/$A$2</f>
+        <v>0.008794570308765893</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5159</v>
-      </c>
-      <c r="F8">
-        <f>1086/$B$1</f>
-        <v>0.10381416690564955</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <f>0/$A$2</f>
+        <v>0.0</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1086</v>
       </c>
       <c r="E9">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <f>10/$B$1</f>
-        <v>9.5593155530064046E-4</v>
+        <v>5159</v>
+      </c>
+      <c r="F9" t="n">
+        <f>1086/$A$2</f>
+        <v>0.10381416690564955</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>1317</v>
-      </c>
-      <c r="F10">
-        <f>251/$B$1</f>
-        <v>2.3993882038046074E-2</v>
+        <v>37</v>
+      </c>
+      <c r="F10" t="n">
+        <f>10/$A$2</f>
+        <v>9.559315553006405E-4</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D11">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="E11">
-        <v>1076</v>
-      </c>
-      <c r="F11">
-        <f>193/$B$1</f>
-        <v>1.8449479017302362E-2</v>
+        <v>1317</v>
+      </c>
+      <c r="F11" t="n">
+        <f>251/$A$2</f>
+        <v>0.023993882038046074</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D12">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="E12">
-        <v>522</v>
-      </c>
-      <c r="F12">
-        <f>95/$B$1</f>
-        <v>9.0813497753560839E-3</v>
+        <v>1076</v>
+      </c>
+      <c r="F12" t="n">
+        <f>193/$A$2</f>
+        <v>0.018449479017302362</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>659</v>
-      </c>
-      <c r="F13">
-        <f>125/$B$1</f>
-        <v>1.1949144441258006E-2</v>
+        <v>522</v>
+      </c>
+      <c r="F13" t="n">
+        <f>95/$A$2</f>
+        <v>0.009081349775356084</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14">
-        <v>641</v>
-      </c>
-      <c r="F14">
-        <f>126/$B$1</f>
-        <v>1.204473759678807E-2</v>
+        <v>659</v>
+      </c>
+      <c r="F14" t="n">
+        <f>125/$A$2</f>
+        <v>0.011949144441258006</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>827</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>8483</v>
+        <v>126</v>
       </c>
       <c r="E15">
-        <v>41888</v>
-      </c>
-      <c r="F15">
-        <f>8483/$B$1</f>
-        <v>0.81091673836153333</v>
+        <v>641</v>
+      </c>
+      <c r="F15" t="n">
+        <f>126/$A$2</f>
+        <v>0.01204473759678807</v>
       </c>
       <c r="G15">
-        <v>360</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>827</v>
+      </c>
+      <c r="D16">
+        <v>8483</v>
+      </c>
+      <c r="E16">
+        <v>41888</v>
+      </c>
+      <c r="F16" t="n">
+        <f>8483/$A$2</f>
+        <v>0.8109167383615333</v>
+      </c>
+      <c r="G16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1542</v>
+      </c>
+      <c r="D17">
+        <v>10461</v>
+      </c>
+      <c r="E17">
+        <v>51802</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
-      </c>
-      <c r="C16">
-        <v>1542</v>
-      </c>
-      <c r="D16">
-        <v>10461</v>
-      </c>
-      <c r="E16">
-        <v>51802</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1252,7 +1243,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1269,16 +1260,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1286,16 +1277,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>11</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1303,7 +1294,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1320,16 +1311,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1337,7 +1328,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1346,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1354,16 +1345,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1371,16 +1362,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1388,16 +1379,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1405,237 +1396,254 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>83</v>
+      </c>
+      <c r="E30">
+        <v>520</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>92</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>581</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>503</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C34">
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <v>92</v>
-      </c>
-      <c r="E34">
-        <v>503</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C37">
+        <v>373</v>
+      </c>
+      <c r="D37">
+        <v>1085</v>
+      </c>
+      <c r="E37">
+        <v>5148</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
-        <v>373</v>
-      </c>
-      <c r="D36">
-        <v>1085</v>
-      </c>
-      <c r="E36">
-        <v>5148</v>
-      </c>
-      <c r="G36">
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>251</v>
+      </c>
+      <c r="E39">
+        <v>1317</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>192</v>
+      </c>
+      <c r="E40">
+        <v>1070</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>94</v>
+      </c>
+      <c r="E41">
+        <v>511</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>119</v>
+      </c>
+      <c r="E42">
+        <v>626</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>37</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>120</v>
-      </c>
-      <c r="D38">
-        <v>251</v>
-      </c>
-      <c r="E38">
-        <v>1317</v>
-      </c>
-      <c r="G38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>86</v>
-      </c>
-      <c r="D39">
-        <v>192</v>
-      </c>
-      <c r="E39">
-        <v>1070</v>
-      </c>
-      <c r="G39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>94</v>
-      </c>
-      <c r="E40">
-        <v>511</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>26</v>
-      </c>
-      <c r="D41">
-        <v>119</v>
-      </c>
-      <c r="E41">
-        <v>626</v>
-      </c>
-      <c r="G41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>126</v>
+      </c>
+      <c r="E43">
+        <v>641</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C42">
-        <v>31</v>
-      </c>
-      <c r="D42">
-        <v>126</v>
-      </c>
-      <c r="E42">
-        <v>641</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C44">
+        <v>803</v>
+      </c>
+      <c r="D44">
+        <v>8400</v>
+      </c>
+      <c r="E44">
+        <v>41368</v>
+      </c>
+      <c r="G44">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>17</v>
       </c>
-      <c r="C43">
-        <v>803</v>
-      </c>
-      <c r="D43">
-        <v>8400</v>
-      </c>
-      <c r="E43">
-        <v>41368</v>
-      </c>
-      <c r="G43">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
+      <c r="C45">
         <v>1513</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>10369</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>51221</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>435</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>